--- a/basinCharacteristics/Covariate Data Status - High Res Delineation.xlsx
+++ b/basinCharacteristics/Covariate Data Status - High Res Delineation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="366">
   <si>
     <t>forest</t>
   </si>
@@ -256,9 +256,6 @@
     <t>AreaSqKM</t>
   </si>
   <si>
-    <t>HRD</t>
-  </si>
-  <si>
     <t>\\IGSAGBEBWS-MJO7\projects\dataIn\environmental\streamStructure\northeastHRD\NortheastHRD_AllCatchments.shp</t>
   </si>
   <si>
@@ -319,25 +316,10 @@
     <t>NHDplus style catchemnts developed for the NHD High Resolution flowlines using ArcHydro</t>
   </si>
   <si>
-    <t>/Conte-Ecology/basinCharacteristics/nlcdLandCover</t>
-  </si>
-  <si>
-    <t>/Conte-Ecology/basinCharacteristics/fwsWetlands</t>
-  </si>
-  <si>
-    <t>/Conte-Ecology/basinCharacteristics/surficialCoarseness</t>
-  </si>
-  <si>
     <t>Layer Development GitHub Repo</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>/Conte-Ecology/basinCharacteristics/impoundedArea</t>
-  </si>
-  <si>
-    <t>/Conte-Ecology/basinCharacteristics/hucs</t>
   </si>
   <si>
     <t>HUC code</t>
@@ -456,9 +438,6 @@
 "Other"</t>
   </si>
   <si>
-    <t>/Conte-Ecology/basinCharacteristics/nlcdImpervious</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -498,15 +477,6 @@
   </si>
   <si>
     <t>drainageclass</t>
-  </si>
-  <si>
-    <t>/Conte-Ecology/basinCharacteristics/soilDrainageClass</t>
-  </si>
-  <si>
-    <t>/Conte-Ecology/basinCharacteristics/percentSandy</t>
-  </si>
-  <si>
-    <t>/Conte-Ecology/basinCharacteristics/soilHydrologicGroup</t>
   </si>
   <si>
     <t>hydrogroup_a</t>
@@ -611,22 +581,13 @@
     <t>degrees C</t>
   </si>
   <si>
-    <t>/Conte-Ecology/basinCharacteristics/prism</t>
-  </si>
-  <si>
     <t>slope_pcnt</t>
   </si>
   <si>
-    <t>/Conte-Ecology/basinCharacteristics/topography</t>
-  </si>
-  <si>
     <t>dep_no3_2011</t>
   </si>
   <si>
     <t>dep_so4_2011</t>
-  </si>
-  <si>
-    <t>/Conte-Ecology/basinCharacteristics/atmosphericDeposition</t>
   </si>
   <si>
     <t>Local Data Storage File Path</t>
@@ -1049,12 +1010,6 @@
     <t>count</t>
   </si>
   <si>
-    <t>/Conte-Ecology/basinCharacteristics/nlcdTreeCanopy</t>
-  </si>
-  <si>
-    <t>/Conte-Ecology/basinCharacteristics/tncDams</t>
-  </si>
-  <si>
     <t>Spatial Points</t>
   </si>
   <si>
@@ -1332,6 +1287,48 @@
   </si>
   <si>
     <t>The number of locks in the catchment area.</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/impoundedArea</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/fwsWetlands</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/atmosphericDeposition</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/topography</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/nlcdImpervious</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/nlcdLandCover</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/nlcdTreeCanopy</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/prism</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/tncDams</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/percentSandy</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/soilDrainageClass</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/soilHydrologicGroup</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/surficialCoarseness</t>
+  </si>
+  <si>
+    <t>/Conte-Ecology/shedsData/basinCharacteristics/hucs</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1613,9 +1610,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1680,400 +1674,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="81">
     <dxf>
       <font>
         <b val="0"/>
@@ -3763,399 +3364,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -4904,134 +4112,110 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AE63" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101">
-  <autoFilter ref="A1:AE63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S58" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77">
+  <autoFilter ref="A1:S58"/>
   <sortState ref="A2:AE63">
     <sortCondition ref="E1:E63"/>
   </sortState>
-  <tableColumns count="31">
-    <tableColumn id="1" name="Data Layer" dataDxfId="100"/>
-    <tableColumn id="9" name="Description" dataDxfId="99"/>
-    <tableColumn id="18" name="Name" dataDxfId="98"/>
-    <tableColumn id="30" name="Group" dataDxfId="97"/>
-    <tableColumn id="5" name="Data Source" dataDxfId="96"/>
-    <tableColumn id="25" name="Source Resolution" dataDxfId="95"/>
-    <tableColumn id="47" name="Layer Development GitHub Repo" dataDxfId="94"/>
-    <tableColumn id="2" name="Raw Units" dataDxfId="93"/>
-    <tableColumn id="22" name="Conversion Factor" dataDxfId="92"/>
-    <tableColumn id="3" name="Final Units" dataDxfId="91"/>
-    <tableColumn id="6" name="Layer Classification" dataDxfId="90"/>
-    <tableColumn id="21" name="Loaded to Web System" dataDxfId="89"/>
-    <tableColumn id="4" name="Automated Raster Prep" dataDxfId="88"/>
-    <tableColumn id="19" name="Local" dataDxfId="87"/>
-    <tableColumn id="20" name="Upstream" dataDxfId="86"/>
-    <tableColumn id="27" name="High Res Delineation Range" dataDxfId="85"/>
-    <tableColumn id="26" name="50 ft Riparian Buffers (HRD Range)" dataDxfId="84"/>
-    <tableColumn id="29" name="100 ft Riparian Buffers (HRD Range)" dataDxfId="83"/>
-    <tableColumn id="28" name="200 ft Riparian Buffers (HRD Range)" dataDxfId="82"/>
-    <tableColumn id="10" name="CT" dataDxfId="81"/>
-    <tableColumn id="11" name="DC" dataDxfId="80"/>
-    <tableColumn id="8" name="DE" dataDxfId="79"/>
-    <tableColumn id="12" name="MA" dataDxfId="78"/>
-    <tableColumn id="7" name="MD" dataDxfId="77"/>
-    <tableColumn id="13" name="ME" dataDxfId="76"/>
-    <tableColumn id="14" name="NJ" dataDxfId="75"/>
-    <tableColumn id="15" name="NY" dataDxfId="74"/>
-    <tableColumn id="24" name="PA" dataDxfId="73"/>
-    <tableColumn id="23" name="VA" dataDxfId="72"/>
-    <tableColumn id="17" name="VT" dataDxfId="71"/>
-    <tableColumn id="16" name="WV" dataDxfId="70"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="Data Layer" dataDxfId="76"/>
+    <tableColumn id="9" name="Description" dataDxfId="75"/>
+    <tableColumn id="18" name="Name" dataDxfId="74"/>
+    <tableColumn id="30" name="Group" dataDxfId="73"/>
+    <tableColumn id="5" name="Data Source" dataDxfId="72"/>
+    <tableColumn id="25" name="Source Resolution" dataDxfId="71"/>
+    <tableColumn id="47" name="Layer Development GitHub Repo" dataDxfId="70"/>
+    <tableColumn id="2" name="Raw Units" dataDxfId="69"/>
+    <tableColumn id="22" name="Conversion Factor" dataDxfId="68"/>
+    <tableColumn id="3" name="Final Units" dataDxfId="67"/>
+    <tableColumn id="6" name="Layer Classification" dataDxfId="66"/>
+    <tableColumn id="21" name="Loaded to Web System" dataDxfId="65"/>
+    <tableColumn id="4" name="Automated Raster Prep" dataDxfId="64"/>
+    <tableColumn id="19" name="Local" dataDxfId="63"/>
+    <tableColumn id="20" name="Upstream" dataDxfId="62"/>
+    <tableColumn id="27" name="High Res Delineation Range" dataDxfId="61"/>
+    <tableColumn id="26" name="50 ft Riparian Buffers (HRD Range)" dataDxfId="60"/>
+    <tableColumn id="29" name="100 ft Riparian Buffers (HRD Range)" dataDxfId="59"/>
+    <tableColumn id="28" name="200 ft Riparian Buffers (HRD Range)" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:X5" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:X5" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54">
   <autoFilter ref="A1:X5"/>
   <tableColumns count="24">
-    <tableColumn id="1" name="Data Layer" dataDxfId="65"/>
-    <tableColumn id="9" name="Description" dataDxfId="64"/>
-    <tableColumn id="18" name="Name" dataDxfId="63"/>
-    <tableColumn id="5" name="Data Source" dataDxfId="62"/>
-    <tableColumn id="47" name="Layer Development GitHub Repo" dataDxfId="61"/>
-    <tableColumn id="2" name="Raw Units" dataDxfId="60"/>
-    <tableColumn id="3" name="Final Units" dataDxfId="59"/>
-    <tableColumn id="6" name="Layer Classification" dataDxfId="58"/>
-    <tableColumn id="21" name="Loaded to Web System" dataDxfId="57"/>
-    <tableColumn id="4" name="Automated Raster Prep" dataDxfId="56"/>
-    <tableColumn id="19" name="Local" dataDxfId="55"/>
-    <tableColumn id="20" name="Upstream" dataDxfId="54"/>
-    <tableColumn id="10" name="CT" dataDxfId="53"/>
-    <tableColumn id="11" name="DC" dataDxfId="52"/>
-    <tableColumn id="8" name="DE" dataDxfId="51"/>
-    <tableColumn id="12" name="MA" dataDxfId="50"/>
-    <tableColumn id="7" name="MD" dataDxfId="49"/>
-    <tableColumn id="13" name="ME" dataDxfId="48"/>
-    <tableColumn id="14" name="NJ" dataDxfId="47"/>
-    <tableColumn id="15" name="NY" dataDxfId="46"/>
-    <tableColumn id="24" name="PA" dataDxfId="45"/>
-    <tableColumn id="23" name="VA" dataDxfId="44"/>
-    <tableColumn id="17" name="VT" dataDxfId="43"/>
-    <tableColumn id="16" name="WV" dataDxfId="42"/>
+    <tableColumn id="1" name="Data Layer" dataDxfId="53"/>
+    <tableColumn id="9" name="Description" dataDxfId="52"/>
+    <tableColumn id="18" name="Name" dataDxfId="51"/>
+    <tableColumn id="5" name="Data Source" dataDxfId="50"/>
+    <tableColumn id="47" name="Layer Development GitHub Repo" dataDxfId="49"/>
+    <tableColumn id="2" name="Raw Units" dataDxfId="48"/>
+    <tableColumn id="3" name="Final Units" dataDxfId="47"/>
+    <tableColumn id="6" name="Layer Classification" dataDxfId="46"/>
+    <tableColumn id="21" name="Loaded to Web System" dataDxfId="45"/>
+    <tableColumn id="4" name="Automated Raster Prep" dataDxfId="44"/>
+    <tableColumn id="19" name="Local" dataDxfId="43"/>
+    <tableColumn id="20" name="Upstream" dataDxfId="42"/>
+    <tableColumn id="10" name="CT" dataDxfId="41"/>
+    <tableColumn id="11" name="DC" dataDxfId="40"/>
+    <tableColumn id="8" name="DE" dataDxfId="39"/>
+    <tableColumn id="12" name="MA" dataDxfId="38"/>
+    <tableColumn id="7" name="MD" dataDxfId="37"/>
+    <tableColumn id="13" name="ME" dataDxfId="36"/>
+    <tableColumn id="14" name="NJ" dataDxfId="35"/>
+    <tableColumn id="15" name="NY" dataDxfId="34"/>
+    <tableColumn id="24" name="PA" dataDxfId="33"/>
+    <tableColumn id="23" name="VA" dataDxfId="32"/>
+    <tableColumn id="17" name="VT" dataDxfId="31"/>
+    <tableColumn id="16" name="WV" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F11" totalsRowShown="0" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F11" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="A1:F11"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Data Source" dataDxfId="40"/>
-    <tableColumn id="2" name="Data Source Description" dataDxfId="39"/>
-    <tableColumn id="4" name="Raw Data Layer" dataDxfId="38"/>
-    <tableColumn id="5" name="URL" dataDxfId="37"/>
-    <tableColumn id="6" name="Citation" dataDxfId="36"/>
-    <tableColumn id="3" name="Local Data Storage File Path" dataDxfId="35"/>
+    <tableColumn id="1" name="Data Source" dataDxfId="28"/>
+    <tableColumn id="2" name="Data Source Description" dataDxfId="27"/>
+    <tableColumn id="4" name="Raw Data Layer" dataDxfId="26"/>
+    <tableColumn id="5" name="URL" dataDxfId="25"/>
+    <tableColumn id="6" name="Citation" dataDxfId="24"/>
+    <tableColumn id="3" name="Local Data Storage File Path" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:AE2" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
-  <autoFilter ref="A1:AE2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:S7" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
+  <autoFilter ref="A1:S7"/>
   <sortState ref="A2:AE64">
     <sortCondition ref="A1:A64"/>
   </sortState>
-  <tableColumns count="31">
-    <tableColumn id="1" name="Data Layer" dataDxfId="30"/>
-    <tableColumn id="9" name="Description" dataDxfId="29"/>
-    <tableColumn id="18" name="Name" dataDxfId="28"/>
-    <tableColumn id="30" name="Group" dataDxfId="27"/>
-    <tableColumn id="5" name="Data Source" dataDxfId="26"/>
-    <tableColumn id="25" name="Source Resolution" dataDxfId="25"/>
-    <tableColumn id="47" name="Layer Development GitHub Repo" dataDxfId="24"/>
-    <tableColumn id="2" name="Raw Units" dataDxfId="23"/>
-    <tableColumn id="22" name="Conversion Factor" dataDxfId="22"/>
-    <tableColumn id="3" name="Final Units" dataDxfId="21"/>
-    <tableColumn id="6" name="Layer Classification" dataDxfId="20"/>
-    <tableColumn id="21" name="Loaded to Web System" dataDxfId="19"/>
-    <tableColumn id="4" name="Automated Raster Prep" dataDxfId="18"/>
-    <tableColumn id="19" name="Local" dataDxfId="17"/>
-    <tableColumn id="20" name="Upstream" dataDxfId="16"/>
-    <tableColumn id="27" name="High Res Delineation Range" dataDxfId="15"/>
-    <tableColumn id="26" name="50 ft Riparian Buffers (HRD Range)" dataDxfId="14"/>
-    <tableColumn id="29" name="100 ft Riparian Buffers (HRD Range)" dataDxfId="13"/>
-    <tableColumn id="28" name="200 ft Riparian Buffers (HRD Range)" dataDxfId="12"/>
-    <tableColumn id="10" name="CT" dataDxfId="11"/>
-    <tableColumn id="11" name="DC" dataDxfId="10"/>
-    <tableColumn id="8" name="DE" dataDxfId="9"/>
-    <tableColumn id="12" name="MA" dataDxfId="8"/>
-    <tableColumn id="7" name="MD" dataDxfId="7"/>
-    <tableColumn id="13" name="ME" dataDxfId="6"/>
-    <tableColumn id="14" name="NJ" dataDxfId="5"/>
-    <tableColumn id="15" name="NY" dataDxfId="4"/>
-    <tableColumn id="24" name="PA" dataDxfId="3"/>
-    <tableColumn id="23" name="VA" dataDxfId="2"/>
-    <tableColumn id="17" name="VT" dataDxfId="1"/>
-    <tableColumn id="16" name="WV" dataDxfId="0"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="Data Layer" dataDxfId="18"/>
+    <tableColumn id="9" name="Description" dataDxfId="17"/>
+    <tableColumn id="18" name="Name" dataDxfId="16"/>
+    <tableColumn id="30" name="Group" dataDxfId="15"/>
+    <tableColumn id="5" name="Data Source" dataDxfId="14"/>
+    <tableColumn id="25" name="Source Resolution" dataDxfId="13"/>
+    <tableColumn id="47" name="Layer Development GitHub Repo" dataDxfId="12"/>
+    <tableColumn id="2" name="Raw Units" dataDxfId="11"/>
+    <tableColumn id="22" name="Conversion Factor" dataDxfId="10"/>
+    <tableColumn id="3" name="Final Units" dataDxfId="9"/>
+    <tableColumn id="6" name="Layer Classification" dataDxfId="8"/>
+    <tableColumn id="21" name="Loaded to Web System" dataDxfId="7"/>
+    <tableColumn id="4" name="Automated Raster Prep" dataDxfId="6"/>
+    <tableColumn id="19" name="Local" dataDxfId="5"/>
+    <tableColumn id="20" name="Upstream" dataDxfId="4"/>
+    <tableColumn id="27" name="High Res Delineation Range" dataDxfId="3"/>
+    <tableColumn id="26" name="50 ft Riparian Buffers (HRD Range)" dataDxfId="2"/>
+    <tableColumn id="29" name="100 ft Riparian Buffers (HRD Range)" dataDxfId="1"/>
+    <tableColumn id="28" name="200 ft Riparian Buffers (HRD Range)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5327,13 +4511,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF63"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G52" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -5343,7 +4527,7 @@
     <col min="3" max="4" width="25.5703125" style="18" customWidth="1"/>
     <col min="5" max="5" width="42" style="10" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="92.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="18" customWidth="1"/>
     <col min="10" max="10" width="23" style="19" customWidth="1"/>
@@ -5352,139 +4536,92 @@
     <col min="13" max="13" width="18.28515625" style="19" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" style="10" customWidth="1"/>
     <col min="15" max="19" width="18" style="10" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" style="21" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" style="21" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="21" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" style="21" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" style="21" customWidth="1"/>
-    <col min="27" max="28" width="8.140625" style="21" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" style="21" customWidth="1"/>
-    <col min="30" max="30" width="7.85546875" style="21" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" style="21" customWidth="1"/>
-    <col min="32" max="32" width="24" style="21" customWidth="1"/>
-    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" customWidth="1"/>
-    <col min="36" max="36" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24" style="21" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>64</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>75</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="93" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>352</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>63</v>
@@ -5496,7 +4633,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>34</v>
@@ -5514,73 +4651,37 @@
         <v>34</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2"/>
+        <v>34</v>
+      </c>
+      <c r="T2"/>
     </row>
-    <row r="3" spans="1:32" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>352</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>63</v>
@@ -5592,7 +4693,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>34</v>
@@ -5610,73 +4711,37 @@
         <v>34</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF3"/>
+        <v>34</v>
+      </c>
+      <c r="T3"/>
     </row>
-    <row r="4" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>352</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>63</v>
@@ -5688,7 +4753,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>34</v>
@@ -5706,73 +4771,37 @@
         <v>34</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4"/>
+        <v>34</v>
+      </c>
+      <c r="T4"/>
     </row>
-    <row r="5" spans="1:32" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
+        <v>352</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>63</v>
@@ -5784,7 +4813,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>34</v>
@@ -5802,73 +4831,37 @@
         <v>34</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF5"/>
+        <v>34</v>
+      </c>
+      <c r="T5"/>
     </row>
-    <row r="6" spans="1:32" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>63</v>
@@ -5880,7 +4873,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>34</v>
@@ -5898,73 +4891,37 @@
         <v>34</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF6"/>
+        <v>34</v>
+      </c>
+      <c r="T6"/>
     </row>
-    <row r="7" spans="1:32" ht="93" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="93" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>63</v>
@@ -5976,7 +4933,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>34</v>
@@ -5994,73 +4951,37 @@
         <v>34</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF7"/>
+        <v>34</v>
+      </c>
+      <c r="T7"/>
     </row>
-    <row r="8" spans="1:32" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>24</v>
@@ -6090,73 +5011,37 @@
         <v>34</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF8"/>
+        <v>34</v>
+      </c>
+      <c r="T8"/>
     </row>
-    <row r="9" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>276</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>189</v>
+        <v>354</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>23</v>
@@ -6168,7 +5053,7 @@
         <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>34</v>
@@ -6194,65 +5079,29 @@
       <c r="S9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF9"/>
+      <c r="T9"/>
     </row>
-    <row r="10" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>276</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>189</v>
+        <v>354</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>23</v>
@@ -6264,7 +5113,7 @@
         <v>23</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>34</v>
@@ -6290,77 +5139,41 @@
       <c r="S10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF10"/>
+      <c r="T10"/>
     </row>
-    <row r="11" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>186</v>
+        <v>355</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I11" s="13">
         <v>1</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>34</v>
@@ -6378,73 +5191,37 @@
         <v>34</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF11"/>
+        <v>34</v>
+      </c>
+      <c r="T11"/>
     </row>
-    <row r="12" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>186</v>
+        <v>355</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>14</v>
@@ -6456,7 +5233,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>34</v>
@@ -6474,73 +5251,37 @@
         <v>34</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF12"/>
+        <v>34</v>
+      </c>
+      <c r="T12"/>
     </row>
-    <row r="13" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>140</v>
+        <v>356</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>14</v>
@@ -6552,7 +5293,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>34</v>
@@ -6578,65 +5319,29 @@
       <c r="S13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF13"/>
+      <c r="T13"/>
     </row>
-    <row r="14" spans="1:32" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>126</v>
+        <v>320</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>63</v>
@@ -6648,12 +5353,12 @@
         <v>14</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="49" t="s">
+      <c r="M14" s="48" t="s">
         <v>34</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -6666,73 +5371,37 @@
         <v>34</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF14"/>
+        <v>34</v>
+      </c>
+      <c r="T14"/>
     </row>
-    <row r="15" spans="1:32" ht="93" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="93" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>122</v>
+        <v>327</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>63</v>
@@ -6744,7 +5413,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>34</v>
@@ -6762,73 +5431,37 @@
         <v>34</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF15"/>
+        <v>34</v>
+      </c>
+      <c r="T15"/>
     </row>
-    <row r="16" spans="1:32" ht="186" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="186" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>120</v>
+        <v>325</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>63</v>
@@ -6840,7 +5473,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>34</v>
@@ -6866,65 +5499,29 @@
       <c r="S16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF16"/>
+      <c r="T16"/>
     </row>
-    <row r="17" spans="1:32" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>63</v>
@@ -6936,7 +5533,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>34</v>
@@ -6962,65 +5559,29 @@
       <c r="S17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF17"/>
+      <c r="T17"/>
     </row>
-    <row r="18" spans="1:32" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>63</v>
@@ -7032,7 +5593,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>34</v>
@@ -7058,65 +5619,29 @@
       <c r="S18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF18"/>
+      <c r="T18"/>
     </row>
-    <row r="19" spans="1:32" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>63</v>
@@ -7128,7 +5653,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>34</v>
@@ -7154,65 +5679,29 @@
       <c r="S19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF19"/>
+      <c r="T19"/>
     </row>
-    <row r="20" spans="1:32" ht="162.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="162.75" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>63</v>
@@ -7224,7 +5713,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>34</v>
@@ -7250,65 +5739,29 @@
       <c r="S20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF20"/>
+      <c r="T20"/>
     </row>
-    <row r="21" spans="1:32" ht="93" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="93" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>63</v>
@@ -7320,7 +5773,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>34</v>
@@ -7338,73 +5791,37 @@
         <v>34</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF21"/>
+        <v>34</v>
+      </c>
+      <c r="T21"/>
     </row>
-    <row r="22" spans="1:32" ht="162.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="162.75" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>63</v>
@@ -7416,7 +5833,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>34</v>
@@ -7442,65 +5859,29 @@
       <c r="S22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF22"/>
+      <c r="T22"/>
     </row>
-    <row r="23" spans="1:32" s="1" customFormat="1" ht="348.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" s="1" customFormat="1" ht="348.75" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>63</v>
@@ -7512,7 +5893,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>34</v>
@@ -7530,72 +5911,36 @@
         <v>34</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="1" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" s="1" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>63</v>
@@ -7607,7 +5952,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>34</v>
@@ -7625,72 +5970,36 @@
         <v>34</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:32" s="1" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>63</v>
@@ -7702,7 +6011,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>34</v>
@@ -7720,72 +6029,36 @@
         <v>34</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="395.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="395.25" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>63</v>
@@ -7797,7 +6070,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>34</v>
@@ -7815,73 +6088,37 @@
         <v>34</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF26"/>
+        <v>34</v>
+      </c>
+      <c r="T26"/>
     </row>
-    <row r="27" spans="1:32" s="43" customFormat="1" ht="279" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" s="42" customFormat="1" ht="279" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>63</v>
@@ -7893,7 +6130,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>34</v>
@@ -7911,84 +6148,48 @@
         <v>34</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE27" s="2" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A28" s="33" t="s">
-        <v>268</v>
+    <row r="28" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A28" s="32" t="s">
+        <v>255</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>304</v>
+        <v>333</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>289</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H28" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="H28" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="35">
         <v>1</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="35" t="s">
-        <v>90</v>
+      <c r="K28" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>34</v>
@@ -8014,65 +6215,29 @@
       <c r="S28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF28"/>
+      <c r="T28"/>
     </row>
-    <row r="29" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>16</v>
@@ -8084,7 +6249,7 @@
         <v>16</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>34</v>
@@ -8110,65 +6275,29 @@
       <c r="S29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF29"/>
+      <c r="T29"/>
     </row>
-    <row r="30" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>16</v>
@@ -8180,7 +6309,7 @@
         <v>16</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>34</v>
@@ -8206,65 +6335,29 @@
       <c r="S30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF30"/>
+      <c r="T30"/>
     </row>
-    <row r="31" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>16</v>
@@ -8276,7 +6369,7 @@
         <v>16</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>34</v>
@@ -8302,65 +6395,29 @@
       <c r="S31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF31"/>
+      <c r="T31"/>
     </row>
-    <row r="32" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>16</v>
@@ -8372,7 +6429,7 @@
         <v>16</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>34</v>
@@ -8398,65 +6455,29 @@
       <c r="S32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF32"/>
+      <c r="T32"/>
     </row>
-    <row r="33" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>16</v>
@@ -8468,7 +6489,7 @@
         <v>16</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>34</v>
@@ -8494,65 +6515,29 @@
       <c r="S33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF33"/>
+      <c r="T33"/>
     </row>
-    <row r="34" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>16</v>
@@ -8564,7 +6549,7 @@
         <v>16</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>34</v>
@@ -8590,65 +6575,29 @@
       <c r="S34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF34"/>
+      <c r="T34"/>
     </row>
-    <row r="35" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>16</v>
@@ -8660,7 +6609,7 @@
         <v>16</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>34</v>
@@ -8686,65 +6635,29 @@
       <c r="S35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF35"/>
+      <c r="T35"/>
     </row>
-    <row r="36" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>16</v>
@@ -8756,7 +6669,7 @@
         <v>16</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>34</v>
@@ -8782,77 +6695,41 @@
       <c r="S36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF36"/>
+      <c r="T36"/>
     </row>
-    <row r="37" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I37" s="13">
         <v>1</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>34</v>
@@ -8878,65 +6755,29 @@
       <c r="S37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF37"/>
+      <c r="T37"/>
     </row>
-    <row r="38" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>16</v>
@@ -8948,7 +6789,7 @@
         <v>16</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>34</v>
@@ -8974,77 +6815,41 @@
       <c r="S38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF38"/>
+      <c r="T38"/>
     </row>
-    <row r="39" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I39" s="13">
         <v>1</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>34</v>
@@ -9070,65 +6875,29 @@
       <c r="S39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF39"/>
+      <c r="T39"/>
     </row>
-    <row r="40" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>16</v>
@@ -9140,7 +6909,7 @@
         <v>16</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>34</v>
@@ -9166,65 +6935,29 @@
       <c r="S40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF40"/>
+      <c r="T40"/>
     </row>
-    <row r="41" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>16</v>
@@ -9236,7 +6969,7 @@
         <v>16</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>34</v>
@@ -9262,65 +6995,29 @@
       <c r="S41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF41"/>
+      <c r="T41"/>
     </row>
-    <row r="42" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>16</v>
@@ -9332,7 +7029,7 @@
         <v>16</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>34</v>
@@ -9358,76 +7055,40 @@
       <c r="S42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF42"/>
+      <c r="T42"/>
     </row>
-    <row r="43" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A43" s="33" t="s">
+    <row r="43" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A43" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F43" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>274</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="I43" s="36">
+        <v>360</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I43" s="35">
         <v>1</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="35" t="s">
+      <c r="K43" s="34" t="s">
         <v>47</v>
       </c>
       <c r="L43" s="3" t="s">
@@ -9454,77 +7115,41 @@
       <c r="S43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF43"/>
+      <c r="T43"/>
     </row>
-    <row r="44" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A44" s="33" t="s">
-        <v>252</v>
+    <row r="44" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A44" s="32" t="s">
+        <v>239</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>307</v>
+        <v>347</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>274</v>
+        <v>286</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>259</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="I44" s="36">
+        <v>360</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I44" s="35">
         <v>1</v>
       </c>
       <c r="J44" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="35" t="s">
-        <v>278</v>
+      <c r="K44" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>34</v>
@@ -9550,77 +7175,41 @@
       <c r="S44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF44"/>
+      <c r="T44"/>
     </row>
-    <row r="45" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A45" s="33" t="s">
-        <v>253</v>
+    <row r="45" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A45" s="32" t="s">
+        <v>240</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>307</v>
+        <v>346</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>274</v>
+        <v>286</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>259</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="I45" s="36">
+        <v>360</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I45" s="35">
         <v>1</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="35" t="s">
-        <v>279</v>
+      <c r="K45" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>34</v>
@@ -9646,77 +7235,41 @@
       <c r="S45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF45"/>
+      <c r="T45"/>
     </row>
-    <row r="46" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A46" s="33" t="s">
-        <v>254</v>
+    <row r="46" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A46" s="32" t="s">
+        <v>241</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C46" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="I46" s="36">
+      <c r="H46" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I46" s="35">
         <v>1</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K46" s="35" t="s">
-        <v>280</v>
+      <c r="K46" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>34</v>
@@ -9742,77 +7295,41 @@
       <c r="S46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF46"/>
+      <c r="T46"/>
     </row>
-    <row r="47" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A47" s="33" t="s">
-        <v>255</v>
+    <row r="47" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A47" s="32" t="s">
+        <v>242</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>307</v>
+        <v>348</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>274</v>
+        <v>286</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>259</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="I47" s="36">
+        <v>360</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I47" s="35">
         <v>1</v>
       </c>
       <c r="J47" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K47" s="35" t="s">
-        <v>281</v>
+      <c r="K47" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>34</v>
@@ -9838,77 +7355,41 @@
       <c r="S47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF47"/>
+      <c r="T47"/>
     </row>
-    <row r="48" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
-        <v>256</v>
+    <row r="48" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A48" s="32" t="s">
+        <v>243</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>307</v>
+        <v>349</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>274</v>
+        <v>286</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>259</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="I48" s="36">
+        <v>360</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I48" s="35">
         <v>1</v>
       </c>
       <c r="J48" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="35" t="s">
-        <v>282</v>
+      <c r="K48" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>34</v>
@@ -9934,77 +7415,41 @@
       <c r="S48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF48"/>
+      <c r="T48"/>
     </row>
-    <row r="49" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A49" s="33" t="s">
-        <v>257</v>
+    <row r="49" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A49" s="32" t="s">
+        <v>244</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="D49" s="44" t="s">
-        <v>307</v>
+        <v>350</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>274</v>
+        <v>286</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>259</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="I49" s="36">
+        <v>360</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I49" s="35">
         <v>1</v>
       </c>
       <c r="J49" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="35" t="s">
-        <v>283</v>
+      <c r="K49" s="34" t="s">
+        <v>268</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>34</v>
@@ -10030,161 +7475,89 @@
       <c r="S49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF49"/>
+      <c r="T49"/>
     </row>
-    <row r="50" spans="1:32" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A50" s="33" t="s">
+    <row r="50" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
+      <c r="A50" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H50" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="I50" s="36">
+      <c r="I50" s="35">
         <v>1</v>
       </c>
       <c r="J50" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K50" s="35" t="s">
+      <c r="K50" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T50"/>
+    </row>
+    <row r="51" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF50"/>
-    </row>
-    <row r="51" spans="1:32" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>154</v>
+        <v>361</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>63</v>
@@ -10196,7 +7569,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>34</v>
@@ -10214,85 +7587,49 @@
         <v>34</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF51"/>
+        <v>34</v>
+      </c>
+      <c r="T51"/>
     </row>
-    <row r="52" spans="1:32" ht="209.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" ht="209.25" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C52" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E52" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>34</v>
@@ -10310,73 +7647,37 @@
         <v>34</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE52" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF52"/>
+        <v>34</v>
+      </c>
+      <c r="T52"/>
     </row>
-    <row r="53" spans="1:32" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>238</v>
+        <v>291</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>225</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>155</v>
+        <v>363</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>63</v>
@@ -10388,7 +7689,7 @@
         <v>14</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>34</v>
@@ -10406,73 +7707,37 @@
         <v>34</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF53"/>
+        <v>34</v>
+      </c>
+      <c r="T53"/>
     </row>
-    <row r="54" spans="1:32" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>238</v>
+        <v>291</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>225</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>155</v>
+        <v>363</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>63</v>
@@ -10484,7 +7749,7 @@
         <v>14</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>34</v>
@@ -10502,73 +7767,37 @@
         <v>34</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF54"/>
+        <v>34</v>
+      </c>
+      <c r="T54"/>
     </row>
-    <row r="55" spans="1:32" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="42" t="s">
-        <v>354</v>
+      <c r="B55" s="41" t="s">
+        <v>339</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>238</v>
+        <v>291</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>225</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>155</v>
+        <v>363</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>63</v>
@@ -10580,7 +7809,7 @@
         <v>14</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>34</v>
@@ -10598,73 +7827,37 @@
         <v>34</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF55"/>
+        <v>34</v>
+      </c>
+      <c r="T55"/>
     </row>
-    <row r="56" spans="1:32" ht="162.75" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" ht="162.75" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="42" t="s">
-        <v>357</v>
+      <c r="B56" s="41" t="s">
+        <v>342</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>238</v>
+        <v>291</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>225</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>155</v>
+        <v>363</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>63</v>
@@ -10676,7 +7869,7 @@
         <v>14</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>34</v>
@@ -10694,73 +7887,37 @@
         <v>34</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF56"/>
+        <v>34</v>
+      </c>
+      <c r="T56"/>
     </row>
-    <row r="57" spans="1:32" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="42" t="s">
-        <v>353</v>
+      <c r="B57" s="41" t="s">
+        <v>338</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>238</v>
+        <v>291</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>225</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>155</v>
+        <v>363</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>63</v>
@@ -10772,7 +7929,7 @@
         <v>14</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>34</v>
@@ -10790,73 +7947,37 @@
         <v>34</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF57"/>
+        <v>34</v>
+      </c>
+      <c r="T57"/>
     </row>
-    <row r="58" spans="1:32" ht="116.25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="42" t="s">
-        <v>358</v>
+      <c r="B58" s="41" t="s">
+        <v>343</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E58" s="41" t="s">
-        <v>238</v>
+        <v>291</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>225</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>102</v>
+        <v>364</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>63</v>
@@ -10868,7 +7989,7 @@
         <v>14</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>34</v>
@@ -10886,531 +8007,15 @@
         <v>34</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF58"/>
-    </row>
-    <row r="59" spans="1:32" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I59" s="13">
-        <v>1</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE59" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF59"/>
-    </row>
-    <row r="60" spans="1:32" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I60" s="13">
-        <v>1</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF60"/>
-    </row>
-    <row r="61" spans="1:32" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I61" s="13">
-        <v>1</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF61"/>
-    </row>
-    <row r="62" spans="1:32" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I62" s="13">
-        <v>1</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R62" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S62" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE62" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF62"/>
-    </row>
-    <row r="63" spans="1:32" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I63" s="13">
-        <v>1</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF63"/>
+        <v>34</v>
+      </c>
+      <c r="T58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11471,7 +8076,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>77</v>
@@ -11480,28 +8085,28 @@
         <v>76</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>4</v>
@@ -11703,209 +8308,209 @@
         <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>99</v>
+      <c r="A2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>239</v>
+      <c r="A3" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>116</v>
+      <c r="A4" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>243</v>
+        <v>193</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>230</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>117</v>
+      <c r="A5" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>241</v>
+        <v>193</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>228</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>194</v>
+      <c r="A6" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>193</v>
+      <c r="D6" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>198</v>
+      <c r="A7" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>244</v>
+        <v>195</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>231</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>226</v>
+      <c r="A8" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>213</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>245</v>
+        <v>195</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>232</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>118</v>
+      <c r="A9" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>246</v>
+        <v>193</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>233</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
+      <c r="A10" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>92</v>
+      <c r="A11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+        <v>194</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="31"/>
+      <c r="E13" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11924,13 +8529,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -11948,213 +8553,425 @@
     <col min="13" max="13" width="18.28515625" style="19" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" style="10" customWidth="1"/>
     <col min="15" max="19" width="18" style="10" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" style="21" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" style="21" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="21" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" style="21" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" style="21" customWidth="1"/>
-    <col min="27" max="28" width="8.140625" style="21" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" style="21" customWidth="1"/>
-    <col min="30" max="30" width="7.85546875" style="21" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" style="21" customWidth="1"/>
-    <col min="32" max="32" width="24" style="21" customWidth="1"/>
-    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" customWidth="1"/>
-    <col min="36" max="36" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24" style="21" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>64</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="13">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2"/>
+      <c r="N7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/basinCharacteristics/Covariate Data Status - High Res Delineation.xlsx
+++ b/basinCharacteristics/Covariate Data Status - High Res Delineation.xlsx
@@ -8,35 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Covariate Data Status - High Re" sheetId="8" r:id="rId1"/>
-    <sheet name="Stream Reach Covariates" sheetId="11" r:id="rId2"/>
-    <sheet name="Data Sources" sheetId="9" r:id="rId3"/>
-    <sheet name="Removed Covariates" sheetId="12" r:id="rId4"/>
+    <sheet name="Data Sources" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="329">
   <si>
     <t>forest</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
     <t>Data Layer</t>
   </si>
   <si>
@@ -64,24 +47,12 @@
     <t>%</t>
   </si>
   <si>
-    <t>Stream Reach Slope</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
     <t>Basin Elevation</t>
   </si>
   <si>
-    <t>Reach Elevation</t>
-  </si>
-  <si>
-    <t>elev_nalcc</t>
-  </si>
-  <si>
-    <t>meters</t>
-  </si>
-  <si>
     <t>Atmospheric Deposition of SO4 (2011 Total)</t>
   </si>
   <si>
@@ -97,9 +68,6 @@
     <t>Total Drainage Area</t>
   </si>
   <si>
-    <t>Stream Reach Length</t>
-  </si>
-  <si>
     <t>Percent Impervious</t>
   </si>
   <si>
@@ -163,18 +131,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Stream Order</t>
-  </si>
-  <si>
-    <t>Hydrologic Unit Code 4</t>
-  </si>
-  <si>
-    <t>Hydrologic Unit Code 8</t>
-  </si>
-  <si>
-    <t>Hydrologic Unit Code 12</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -199,54 +155,12 @@
     <t>Percent Mixed Forest</t>
   </si>
   <si>
-    <t>HUC4</t>
-  </si>
-  <si>
-    <t>HUC8</t>
-  </si>
-  <si>
-    <t>HUC12</t>
-  </si>
-  <si>
     <t>fraction</t>
   </si>
   <si>
     <t>Final Units</t>
   </si>
   <si>
-    <t>Hydrologic Unit Code 6</t>
-  </si>
-  <si>
-    <t>Hydrologic Unit Code 10</t>
-  </si>
-  <si>
-    <t>HUC6</t>
-  </si>
-  <si>
-    <t>HUC10</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
     <t>Data Source</t>
   </si>
   <si>
@@ -259,9 +173,6 @@
     <t>\\IGSAGBEBWS-MJO7\projects\dataIn\environmental\streamStructure\northeastHRD\NortheastHRD_AllCatchments.shp</t>
   </si>
   <si>
-    <t>High Resolution Delineation</t>
-  </si>
-  <si>
     <t>fwswetlands</t>
   </si>
   <si>
@@ -274,9 +185,6 @@
     <t>surfcoarse</t>
   </si>
   <si>
-    <t>DEM from NALCC</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -292,9 +200,6 @@
     <t>Data Source Description</t>
   </si>
   <si>
-    <t>A product of the National Elevation Dataset's DEM tiles that have been pieced together to form a regional DEM.</t>
-  </si>
-  <si>
     <t>\\IGSAGBEBWS-MJO7\projects\dataIn\environmental\land\fwsWetlands\rawData</t>
   </si>
   <si>
@@ -307,9 +212,6 @@
     <t>Layer Classification</t>
   </si>
   <si>
-    <t>The average elevation across the basin.</t>
-  </si>
-  <si>
     <t>Raw Data Layer</t>
   </si>
   <si>
@@ -322,25 +224,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>HUC code</t>
-  </si>
-  <si>
     <t>\\IGSAGBEBWS-MJO7\projects\dataIn\environmental\streamStructure\wbd</t>
-  </si>
-  <si>
-    <t>"HUC4" Column</t>
-  </si>
-  <si>
-    <t>"HUC6" Column</t>
-  </si>
-  <si>
-    <t>"HUC8" Column</t>
-  </si>
-  <si>
-    <t>"HUC10" Column</t>
-  </si>
-  <si>
-    <t>"HUC12" Column</t>
   </si>
   <si>
     <t>SSURGO (Soil Survey Geographic Database)</t>
@@ -640,9 +524,6 @@
   </si>
   <si>
     <t>Spatial polygons</t>
-  </si>
-  <si>
-    <t>DEM raster</t>
   </si>
   <si>
     <t>Continuous raster</t>
@@ -784,9 +665,6 @@
   </si>
   <si>
     <t>National Atmospheric Deposition Program (NADP)</t>
-  </si>
-  <si>
-    <t>National Elevation Dataset (NED) -  processed by UMass</t>
   </si>
   <si>
     <t>National Land Cover Database (NLCD) - Impervious</t>
@@ -1013,15 +891,9 @@
     <t>Spatial Points</t>
   </si>
   <si>
-    <t>Spatial Polygons</t>
-  </si>
-  <si>
     <t>Spatial points</t>
   </si>
   <si>
-    <t>The Nature Conservancy Dams (edited by UMass)</t>
-  </si>
-  <si>
     <t>"deg_barr" = 1 &amp; "Use" = 1</t>
   </si>
   <si>
@@ -1091,9 +963,6 @@
     <t>1:12,000 to 1:63,367</t>
   </si>
   <si>
-    <t>TNC Dams dataset snapped to high res flowlines (Umass Land Eco Lab)</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -1166,21 +1035,6 @@
     <t>The slope of the landscape spatially averaged over the catchment area.</t>
   </si>
   <si>
-    <t>The HUC10 code associated with the centroid of the catchment.</t>
-  </si>
-  <si>
-    <t>The HUC12 code associated with the centroid of the catchment.</t>
-  </si>
-  <si>
-    <t>The HUC4 code associated with the centroid of the catchment.</t>
-  </si>
-  <si>
-    <t>The HUC6 code associated with the centroid of the catchment.</t>
-  </si>
-  <si>
-    <t>The HUC8 code associated with the centroid of the catchment.</t>
-  </si>
-  <si>
     <t>The percentage of the catchment area that is covered by lakes or ponds that intersect the high resolution stream netowork.</t>
   </si>
   <si>
@@ -1328,14 +1182,47 @@
     <t>/Conte-Ecology/shedsData/basinCharacteristics/surficialCoarseness</t>
   </si>
   <si>
-    <t>/Conte-Ecology/shedsData/basinCharacteristics/hucs</t>
+    <t>National Hyrography Dataset High Resolution Delineation Version 2</t>
+  </si>
+  <si>
+    <t>UMass Designing Sustainable Landscapes Project</t>
+  </si>
+  <si>
+    <t>http://www.umass.edu/landeco/research/dsl/dsl.html</t>
+  </si>
+  <si>
+    <t>The Nature Conservancy Impoundments Locations</t>
+  </si>
+  <si>
+    <t>Continuous raster and vector layers</t>
+  </si>
+  <si>
+    <t>A 30m resolution DEM for the NALCC range as well as cleaned NHD high resolution flowlines</t>
+  </si>
+  <si>
+    <t>Impoundments within the NALCC range mapped to the NHD high resolution flowlines by the DSL Project</t>
+  </si>
+  <si>
+    <t>Designing Sustainable Landscapes. “Landscape Ecology Lab, University of Massachusetts Amherst” &lt;http://www.umass.edu/landeco/research/dsl/dsl.html&gt;</t>
+  </si>
+  <si>
+    <t>Personal Communication</t>
+  </si>
+  <si>
+    <t>National Hydrography Dataset High Resolution Delineation Version 2</t>
+  </si>
+  <si>
+    <t>TNC Impoundment Locations (edited by DSL Project)</t>
+  </si>
+  <si>
+    <t>National Elevation Dataset (NED) -  mosaicked by UMass DSL Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1448,13 +1335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1543,9 +1423,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,14 +1465,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1609,7 +1483,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1642,9 +1515,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1658,7 +1528,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1674,746 +1544,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="18"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2504,25 +1635,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2643,90 +1755,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2763,136 +1791,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3029,8 +1927,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3041,8 +1939,6 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3108,6 +2004,46 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3188,671 +2124,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="18"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -4112,112 +2383,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S58" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:S58" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
   <autoFilter ref="A1:S58"/>
   <sortState ref="A2:AE63">
     <sortCondition ref="E1:E63"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Data Layer" dataDxfId="76"/>
-    <tableColumn id="9" name="Description" dataDxfId="75"/>
-    <tableColumn id="18" name="Name" dataDxfId="74"/>
-    <tableColumn id="30" name="Group" dataDxfId="73"/>
-    <tableColumn id="5" name="Data Source" dataDxfId="72"/>
-    <tableColumn id="25" name="Source Resolution" dataDxfId="71"/>
-    <tableColumn id="47" name="Layer Development GitHub Repo" dataDxfId="70"/>
-    <tableColumn id="2" name="Raw Units" dataDxfId="69"/>
-    <tableColumn id="22" name="Conversion Factor" dataDxfId="68"/>
-    <tableColumn id="3" name="Final Units" dataDxfId="67"/>
-    <tableColumn id="6" name="Layer Classification" dataDxfId="66"/>
-    <tableColumn id="21" name="Loaded to Web System" dataDxfId="65"/>
-    <tableColumn id="4" name="Automated Raster Prep" dataDxfId="64"/>
-    <tableColumn id="19" name="Local" dataDxfId="63"/>
-    <tableColumn id="20" name="Upstream" dataDxfId="62"/>
-    <tableColumn id="27" name="High Res Delineation Range" dataDxfId="61"/>
-    <tableColumn id="26" name="50 ft Riparian Buffers (HRD Range)" dataDxfId="60"/>
-    <tableColumn id="29" name="100 ft Riparian Buffers (HRD Range)" dataDxfId="59"/>
-    <tableColumn id="28" name="200 ft Riparian Buffers (HRD Range)" dataDxfId="58"/>
+    <tableColumn id="1" name="Data Layer" dataDxfId="25"/>
+    <tableColumn id="9" name="Description" dataDxfId="24"/>
+    <tableColumn id="18" name="Name" dataDxfId="23"/>
+    <tableColumn id="30" name="Group" dataDxfId="22"/>
+    <tableColumn id="5" name="Data Source" dataDxfId="21"/>
+    <tableColumn id="25" name="Source Resolution" dataDxfId="20"/>
+    <tableColumn id="47" name="Layer Development GitHub Repo" dataDxfId="19"/>
+    <tableColumn id="2" name="Raw Units" dataDxfId="18"/>
+    <tableColumn id="22" name="Conversion Factor" dataDxfId="17"/>
+    <tableColumn id="3" name="Final Units" dataDxfId="16"/>
+    <tableColumn id="6" name="Layer Classification" dataDxfId="15"/>
+    <tableColumn id="21" name="Loaded to Web System" dataDxfId="14"/>
+    <tableColumn id="4" name="Automated Raster Prep" dataDxfId="13"/>
+    <tableColumn id="19" name="Local" dataDxfId="12"/>
+    <tableColumn id="20" name="Upstream" dataDxfId="11"/>
+    <tableColumn id="27" name="High Res Delineation Range" dataDxfId="10"/>
+    <tableColumn id="26" name="50 ft Riparian Buffers (HRD Range)" dataDxfId="9"/>
+    <tableColumn id="29" name="100 ft Riparian Buffers (HRD Range)" dataDxfId="8"/>
+    <tableColumn id="28" name="200 ft Riparian Buffers (HRD Range)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:X5" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="54">
-  <autoFilter ref="A1:X5"/>
-  <tableColumns count="24">
-    <tableColumn id="1" name="Data Layer" dataDxfId="53"/>
-    <tableColumn id="9" name="Description" dataDxfId="52"/>
-    <tableColumn id="18" name="Name" dataDxfId="51"/>
-    <tableColumn id="5" name="Data Source" dataDxfId="50"/>
-    <tableColumn id="47" name="Layer Development GitHub Repo" dataDxfId="49"/>
-    <tableColumn id="2" name="Raw Units" dataDxfId="48"/>
-    <tableColumn id="3" name="Final Units" dataDxfId="47"/>
-    <tableColumn id="6" name="Layer Classification" dataDxfId="46"/>
-    <tableColumn id="21" name="Loaded to Web System" dataDxfId="45"/>
-    <tableColumn id="4" name="Automated Raster Prep" dataDxfId="44"/>
-    <tableColumn id="19" name="Local" dataDxfId="43"/>
-    <tableColumn id="20" name="Upstream" dataDxfId="42"/>
-    <tableColumn id="10" name="CT" dataDxfId="41"/>
-    <tableColumn id="11" name="DC" dataDxfId="40"/>
-    <tableColumn id="8" name="DE" dataDxfId="39"/>
-    <tableColumn id="12" name="MA" dataDxfId="38"/>
-    <tableColumn id="7" name="MD" dataDxfId="37"/>
-    <tableColumn id="13" name="ME" dataDxfId="36"/>
-    <tableColumn id="14" name="NJ" dataDxfId="35"/>
-    <tableColumn id="15" name="NY" dataDxfId="34"/>
-    <tableColumn id="24" name="PA" dataDxfId="33"/>
-    <tableColumn id="23" name="VA" dataDxfId="32"/>
-    <tableColumn id="17" name="VT" dataDxfId="31"/>
-    <tableColumn id="16" name="WV" dataDxfId="30"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F11" totalsRowShown="0" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F11" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:F11"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Data Source" dataDxfId="28"/>
-    <tableColumn id="2" name="Data Source Description" dataDxfId="27"/>
-    <tableColumn id="4" name="Raw Data Layer" dataDxfId="26"/>
-    <tableColumn id="5" name="URL" dataDxfId="25"/>
-    <tableColumn id="6" name="Citation" dataDxfId="24"/>
-    <tableColumn id="3" name="Local Data Storage File Path" dataDxfId="23"/>
+    <tableColumn id="1" name="Data Source" dataDxfId="5"/>
+    <tableColumn id="2" name="Data Source Description" dataDxfId="4"/>
+    <tableColumn id="4" name="Raw Data Layer" dataDxfId="3"/>
+    <tableColumn id="5" name="URL" dataDxfId="2"/>
+    <tableColumn id="6" name="Citation" dataDxfId="1"/>
+    <tableColumn id="3" name="Local Data Storage File Path" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:S7" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
-  <autoFilter ref="A1:S7"/>
-  <sortState ref="A2:AE64">
-    <sortCondition ref="A1:A64"/>
-  </sortState>
-  <tableColumns count="19">
-    <tableColumn id="1" name="Data Layer" dataDxfId="18"/>
-    <tableColumn id="9" name="Description" dataDxfId="17"/>
-    <tableColumn id="18" name="Name" dataDxfId="16"/>
-    <tableColumn id="30" name="Group" dataDxfId="15"/>
-    <tableColumn id="5" name="Data Source" dataDxfId="14"/>
-    <tableColumn id="25" name="Source Resolution" dataDxfId="13"/>
-    <tableColumn id="47" name="Layer Development GitHub Repo" dataDxfId="12"/>
-    <tableColumn id="2" name="Raw Units" dataDxfId="11"/>
-    <tableColumn id="22" name="Conversion Factor" dataDxfId="10"/>
-    <tableColumn id="3" name="Final Units" dataDxfId="9"/>
-    <tableColumn id="6" name="Layer Classification" dataDxfId="8"/>
-    <tableColumn id="21" name="Loaded to Web System" dataDxfId="7"/>
-    <tableColumn id="4" name="Automated Raster Prep" dataDxfId="6"/>
-    <tableColumn id="19" name="Local" dataDxfId="5"/>
-    <tableColumn id="20" name="Upstream" dataDxfId="4"/>
-    <tableColumn id="27" name="High Res Delineation Range" dataDxfId="3"/>
-    <tableColumn id="26" name="50 ft Riparian Buffers (HRD Range)" dataDxfId="2"/>
-    <tableColumn id="29" name="100 ft Riparian Buffers (HRD Range)" dataDxfId="1"/>
-    <tableColumn id="28" name="200 ft Riparian Buffers (HRD Range)" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4514,29 +2721,29 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G52" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T57" sqref="T57"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="66.42578125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="25.5703125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="67.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" style="16" customWidth="1"/>
+    <col min="3" max="4" width="25.5703125" style="16" customWidth="1"/>
     <col min="5" max="5" width="42" style="10" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="109.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="18" customWidth="1"/>
-    <col min="10" max="10" width="23" style="19" customWidth="1"/>
+    <col min="7" max="7" width="109.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="24" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="16" customWidth="1"/>
+    <col min="10" max="10" width="23" style="17" customWidth="1"/>
     <col min="11" max="11" width="69" style="10" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" style="17" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" style="10" customWidth="1"/>
     <col min="15" max="19" width="18" style="10" customWidth="1"/>
-    <col min="20" max="20" width="24" style="21" customWidth="1"/>
+    <col min="20" max="20" width="24" style="19" customWidth="1"/>
     <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
     <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -4544,3476 +2751,3476 @@
   <sheetData>
     <row r="1" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="N1" s="5" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="93" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2">
         <v>100</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2">
         <v>100</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2">
         <v>100</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2">
         <v>100</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T5"/>
     </row>
     <row r="6" spans="1:20" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I6" s="2">
         <v>100</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T6"/>
     </row>
     <row r="7" spans="1:20" ht="93" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I7" s="2">
         <v>100</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T8"/>
     </row>
     <row r="9" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>276</v>
+        <v>251</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>234</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I9" s="13">
         <v>1</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T9"/>
     </row>
     <row r="10" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>276</v>
+        <v>252</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>234</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I10" s="13">
         <v>1</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T10"/>
     </row>
     <row r="11" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>288</v>
+        <v>266</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>245</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>222</v>
+        <v>328</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="I11" s="13">
         <v>1</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T11"/>
     </row>
     <row r="12" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>222</v>
+        <v>134</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="16">
+        <v>307</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="15">
         <v>1</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>14</v>
+      <c r="J12" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T12"/>
     </row>
     <row r="13" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>289</v>
+        <v>104</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="16">
+        <v>308</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="15">
         <v>1</v>
       </c>
-      <c r="J13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>89</v>
+      <c r="J13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T13"/>
     </row>
     <row r="14" spans="1:20" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>289</v>
+        <v>89</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I14" s="4">
         <v>100</v>
       </c>
-      <c r="J14" s="16" t="s">
-        <v>14</v>
+      <c r="J14" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="48" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="M14" s="44" t="s">
+        <v>24</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T14"/>
     </row>
     <row r="15" spans="1:20" ht="93" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
-        <v>57</v>
+      <c r="A15" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>289</v>
+        <v>279</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I15" s="4">
         <v>100</v>
       </c>
-      <c r="J15" s="16" t="s">
-        <v>14</v>
+      <c r="J15" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T15"/>
     </row>
     <row r="16" spans="1:20" ht="186" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>289</v>
+        <v>277</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I16" s="4">
         <v>100</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>14</v>
+      <c r="J16" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T16"/>
     </row>
     <row r="17" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
-        <v>53</v>
+      <c r="A17" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>289</v>
+        <v>273</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I17" s="2">
         <v>100</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T17"/>
     </row>
     <row r="18" spans="1:20" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
-        <v>55</v>
+      <c r="A18" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>289</v>
+        <v>274</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I18" s="2">
         <v>100</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T18"/>
     </row>
     <row r="19" spans="1:20" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
-        <v>54</v>
+      <c r="A19" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>289</v>
+        <v>275</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I19" s="2">
         <v>100</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T19"/>
     </row>
     <row r="20" spans="1:20" ht="162.75" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
-        <v>56</v>
+      <c r="A20" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>289</v>
+        <v>276</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I20" s="2">
         <v>100</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T20"/>
     </row>
     <row r="21" spans="1:20" ht="93" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
-        <v>58</v>
+      <c r="A21" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>289</v>
+        <v>280</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I21" s="2">
         <v>100</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T21"/>
     </row>
     <row r="22" spans="1:20" ht="162.75" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>289</v>
+      <c r="D22" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I22" s="2">
         <v>100</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T22"/>
     </row>
     <row r="23" spans="1:20" s="1" customFormat="1" ht="348.75" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>289</v>
+        <v>278</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2">
         <v>100</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="1" customFormat="1" ht="116.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
-        <v>59</v>
+      <c r="A24" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>289</v>
+        <v>282</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I24" s="2">
         <v>100</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="1" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>289</v>
+        <v>284</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I25" s="2">
         <v>100</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="395.25" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I26" s="2">
         <v>100</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" s="42" customFormat="1" ht="279" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" s="38" customFormat="1" ht="279" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I27" s="2">
         <v>100</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
-        <v>255</v>
+      <c r="A28" s="29" t="s">
+        <v>215</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>289</v>
+        <v>285</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>246</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="35">
+        <v>310</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="32">
         <v>1</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T28"/>
     </row>
     <row r="29" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I29" s="13">
         <v>1</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T29"/>
     </row>
     <row r="30" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I30" s="13">
         <v>1</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T30"/>
     </row>
     <row r="31" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I31" s="13">
         <v>1</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T31"/>
     </row>
     <row r="32" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I32" s="13">
         <v>1</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T32"/>
     </row>
     <row r="33" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I33" s="13">
         <v>1</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T33"/>
     </row>
     <row r="34" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I34" s="13">
         <v>1</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T34"/>
     </row>
     <row r="35" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I35" s="13">
         <v>1</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T35"/>
     </row>
     <row r="36" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I36" s="13">
         <v>1</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T36"/>
     </row>
     <row r="37" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="I37" s="13">
         <v>1</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T37"/>
     </row>
     <row r="38" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I38" s="13">
         <v>1</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T38"/>
     </row>
     <row r="39" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="I39" s="13">
         <v>1</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T39"/>
     </row>
     <row r="40" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I40" s="13">
         <v>1</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T40"/>
     </row>
     <row r="41" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I41" s="13">
         <v>1</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T41"/>
     </row>
     <row r="42" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I42" s="13">
         <v>1</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T42"/>
     </row>
     <row r="43" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
-        <v>246</v>
+      <c r="A43" s="29" t="s">
+        <v>206</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>292</v>
+        <v>296</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>249</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>259</v>
+        <v>327</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H43" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="I43" s="35">
+        <v>312</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="I43" s="32">
         <v>1</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="K43" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T43"/>
     </row>
     <row r="44" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A44" s="32" t="s">
-        <v>239</v>
+      <c r="A44" s="29" t="s">
+        <v>199</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>292</v>
+        <v>299</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>249</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>259</v>
+        <v>327</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H44" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="I44" s="35">
+        <v>312</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="I44" s="32">
         <v>1</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="34" t="s">
-        <v>263</v>
+        <v>9</v>
+      </c>
+      <c r="K44" s="31" t="s">
+        <v>221</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T44"/>
     </row>
     <row r="45" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A45" s="32" t="s">
-        <v>240</v>
+      <c r="A45" s="29" t="s">
+        <v>200</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>292</v>
+        <v>298</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>249</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>259</v>
+        <v>327</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="I45" s="35">
+        <v>312</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="I45" s="32">
         <v>1</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="34" t="s">
-        <v>264</v>
+        <v>9</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>222</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T45"/>
     </row>
     <row r="46" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A46" s="32" t="s">
-        <v>241</v>
+      <c r="A46" s="29" t="s">
+        <v>201</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C46" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="D46" s="43" t="s">
-        <v>292</v>
-      </c>
       <c r="E46" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>259</v>
+        <v>327</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="I46" s="35">
+        <v>312</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="I46" s="32">
         <v>1</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="34" t="s">
-        <v>265</v>
+        <v>9</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>223</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T46"/>
     </row>
     <row r="47" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A47" s="32" t="s">
-        <v>242</v>
+      <c r="A47" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>292</v>
+        <v>300</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>249</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>259</v>
+        <v>327</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H47" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="I47" s="35">
+        <v>312</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="I47" s="32">
         <v>1</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>266</v>
+        <v>9</v>
+      </c>
+      <c r="K47" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T47"/>
     </row>
     <row r="48" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A48" s="32" t="s">
-        <v>243</v>
+      <c r="A48" s="29" t="s">
+        <v>203</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>292</v>
+        <v>301</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>249</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>259</v>
+        <v>327</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H48" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="I48" s="35">
+        <v>312</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="I48" s="32">
         <v>1</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="34" t="s">
-        <v>267</v>
+        <v>9</v>
+      </c>
+      <c r="K48" s="31" t="s">
+        <v>225</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T48"/>
     </row>
     <row r="49" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A49" s="32" t="s">
-        <v>244</v>
+      <c r="A49" s="29" t="s">
+        <v>204</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>292</v>
+        <v>302</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>249</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>259</v>
+        <v>327</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="I49" s="35">
+        <v>312</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="I49" s="32">
         <v>1</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" s="34" t="s">
-        <v>268</v>
+        <v>9</v>
+      </c>
+      <c r="K49" s="31" t="s">
+        <v>226</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T49"/>
     </row>
     <row r="50" spans="1:20" ht="69.75" x14ac:dyDescent="0.35">
-      <c r="A50" s="32" t="s">
-        <v>245</v>
+      <c r="A50" s="29" t="s">
+        <v>205</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>259</v>
+        <v>303</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="I50" s="35">
+        <v>312</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="I50" s="32">
         <v>1</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="34" t="s">
-        <v>269</v>
+        <v>9</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>227</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="T50"/>
     </row>
     <row r="51" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>225</v>
+        <v>288</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I51" s="13">
         <v>100</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T51"/>
     </row>
     <row r="52" spans="1:20" ht="209.25" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>225</v>
+        <v>289</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T52"/>
     </row>
     <row r="53" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>225</v>
+        <v>293</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I53" s="13">
         <v>100</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T53"/>
     </row>
     <row r="54" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>225</v>
+        <v>292</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I54" s="13">
         <v>100</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T54"/>
     </row>
     <row r="55" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="40" t="s">
-        <v>225</v>
+      <c r="C55" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I55" s="13">
         <v>100</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T55"/>
     </row>
     <row r="56" spans="1:20" ht="162.75" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>225</v>
+        <v>23</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I56" s="13">
         <v>100</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T56"/>
     </row>
     <row r="57" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>225</v>
+        <v>22</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I57" s="13">
         <v>100</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T57"/>
     </row>
     <row r="58" spans="1:20" ht="116.25" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>225</v>
+        <v>8</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I58" s="2">
         <v>100</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T58"/>
     </row>
@@ -8028,269 +6235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:Y5"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="69.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="49" style="18" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="86" style="18" customWidth="1"/>
-    <col min="6" max="6" width="24" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="19" customWidth="1"/>
-    <col min="8" max="8" width="69" style="10" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="18" style="10" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="21" customWidth="1"/>
-    <col min="14" max="14" width="10" style="21" customWidth="1"/>
-    <col min="15" max="15" width="11" style="21" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="21" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="21" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="21" customWidth="1"/>
-    <col min="20" max="21" width="8.140625" style="21" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" style="21" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" style="21" customWidth="1"/>
-    <col min="24" max="24" width="8.5703125" style="21" customWidth="1"/>
-    <col min="25" max="25" width="24" style="21" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="3"/>
-      <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="25"/>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="3"/>
-      <c r="Y5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="24" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8305,212 +6253,220 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>233</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-    </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="30"/>
+      <c r="E13" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8522,462 +6478,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:T7"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="69.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="49" style="18" customWidth="1"/>
-    <col min="3" max="4" width="25.5703125" style="18" customWidth="1"/>
-    <col min="5" max="6" width="31.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="92.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="18" customWidth="1"/>
-    <col min="10" max="10" width="23" style="19" customWidth="1"/>
-    <col min="11" max="11" width="69" style="10" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="10" customWidth="1"/>
-    <col min="15" max="19" width="18" style="10" customWidth="1"/>
-    <col min="20" max="20" width="24" style="21" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="13">
-        <v>1</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="13">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="13">
-        <v>1</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="13">
-        <v>1</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="13">
-        <v>1</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="24" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/basinCharacteristics/Covariate Data Status - High Res Delineation.xlsx
+++ b/basinCharacteristics/Covariate Data Status - High Res Delineation.xlsx
@@ -1035,18 +1035,6 @@
     <t>The slope of the landscape spatially averaged over the catchment area.</t>
   </si>
   <si>
-    <t>The percentage of the catchment area that is covered by lakes or ponds that intersect the high resolution stream netowork.</t>
-  </si>
-  <si>
-    <t>The percentage of the catchment area that is covered by lakes or ponds that do not intersect the high resolution stream netowork.</t>
-  </si>
-  <si>
-    <t>The percentage of the catchment area that is covered by wetlands, lakes, or ponds that do not intersect the high resolution stream netowork.</t>
-  </si>
-  <si>
-    <t>The percentage of the catchment area that is covered by wetlands, lakes, or ponds that intersect the high resolution stream netowork.</t>
-  </si>
-  <si>
     <t>The percentage of the catchment area that is covered by agricultural land (e.g. cultivated crops, orchards, and pasture) including fallow land.</t>
   </si>
   <si>
@@ -1216,6 +1204,18 @@
   </si>
   <si>
     <t>National Elevation Dataset (NED) -  mosaicked by UMass DSL Project</t>
+  </si>
+  <si>
+    <t>The percentage of the catchment area that is covered by lakes or ponds that do not intersect the high resolution stream network.</t>
+  </si>
+  <si>
+    <t>The percentage of the catchment area that is covered by wetlands, lakes, or ponds that do not intersect the high resolution stream network.</t>
+  </si>
+  <si>
+    <t>The percentage of the catchment area that is covered by lakes or ponds that intersect the high resolution stream network.</t>
+  </si>
+  <si>
+    <t>The percentage of the catchment area that is covered by wetlands, lakes, or ponds that intersect the high resolution stream network.</t>
   </si>
 </sst>
 </file>
@@ -2724,7 +2724,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -2813,7 +2813,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>196</v>
@@ -2828,7 +2828,7 @@
         <v>232</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>46</v>
@@ -2873,7 +2873,7 @@
         <v>176</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>53</v>
@@ -2888,7 +2888,7 @@
         <v>232</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>46</v>
@@ -2933,7 +2933,7 @@
         <v>179</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>197</v>
@@ -2948,7 +2948,7 @@
         <v>232</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>46</v>
@@ -2993,7 +2993,7 @@
         <v>177</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>54</v>
@@ -3008,7 +3008,7 @@
         <v>232</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>46</v>
@@ -3053,7 +3053,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>101</v>
@@ -3068,7 +3068,7 @@
         <v>232</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>46</v>
@@ -3113,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>52</v>
@@ -3128,7 +3128,7 @@
         <v>232</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>46</v>
@@ -3182,7 +3182,7 @@
         <v>245</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>233</v>
@@ -3248,7 +3248,7 @@
         <v>234</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>14</v>
@@ -3308,7 +3308,7 @@
         <v>234</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>14</v>
@@ -3362,13 +3362,13 @@
         <v>245</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>233</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>171</v>
@@ -3422,13 +3422,13 @@
         <v>245</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>233</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>9</v>
@@ -3488,7 +3488,7 @@
         <v>233</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>9</v>
@@ -3533,7 +3533,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>82</v>
@@ -3548,7 +3548,7 @@
         <v>233</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>46</v>
@@ -3593,7 +3593,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>78</v>
@@ -3608,7 +3608,7 @@
         <v>233</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>46</v>
@@ -3653,7 +3653,7 @@
         <v>75</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>76</v>
@@ -3668,7 +3668,7 @@
         <v>233</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>46</v>
@@ -3713,7 +3713,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>86</v>
@@ -3728,7 +3728,7 @@
         <v>233</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>46</v>
@@ -3773,7 +3773,7 @@
         <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>84</v>
@@ -3788,7 +3788,7 @@
         <v>233</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>46</v>
@@ -3833,7 +3833,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>85</v>
@@ -3848,7 +3848,7 @@
         <v>233</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>46</v>
@@ -3893,7 +3893,7 @@
         <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>83</v>
@@ -3908,7 +3908,7 @@
         <v>233</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>46</v>
@@ -3953,7 +3953,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>79</v>
@@ -3968,7 +3968,7 @@
         <v>233</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>46</v>
@@ -4013,7 +4013,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>233</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>46</v>
@@ -4073,7 +4073,7 @@
         <v>90</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>91</v>
@@ -4088,7 +4088,7 @@
         <v>233</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>46</v>
@@ -4132,7 +4132,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>80</v>
@@ -4147,7 +4147,7 @@
         <v>233</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>46</v>
@@ -4191,7 +4191,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>88</v>
@@ -4206,7 +4206,7 @@
         <v>233</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>46</v>
@@ -4250,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>81</v>
@@ -4265,7 +4265,7 @@
         <v>233</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>46</v>
@@ -4310,7 +4310,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>87</v>
@@ -4325,7 +4325,7 @@
         <v>233</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>46</v>
@@ -4369,7 +4369,7 @@
         <v>215</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>217</v>
@@ -4384,7 +4384,7 @@
         <v>233</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H28" s="32" t="s">
         <v>9</v>
@@ -4444,7 +4444,7 @@
         <v>235</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>10</v>
@@ -4504,7 +4504,7 @@
         <v>235</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>10</v>
@@ -4564,7 +4564,7 @@
         <v>235</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>10</v>
@@ -4624,7 +4624,7 @@
         <v>235</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>10</v>
@@ -4684,7 +4684,7 @@
         <v>235</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>10</v>
@@ -4744,7 +4744,7 @@
         <v>235</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>10</v>
@@ -4804,7 +4804,7 @@
         <v>235</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>10</v>
@@ -4864,7 +4864,7 @@
         <v>235</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>10</v>
@@ -4924,7 +4924,7 @@
         <v>235</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>135</v>
@@ -4984,7 +4984,7 @@
         <v>235</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>10</v>
@@ -5044,7 +5044,7 @@
         <v>235</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>135</v>
@@ -5104,7 +5104,7 @@
         <v>235</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>10</v>
@@ -5164,7 +5164,7 @@
         <v>235</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>10</v>
@@ -5224,7 +5224,7 @@
         <v>235</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>10</v>
@@ -5269,7 +5269,7 @@
         <v>206</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>214</v>
@@ -5278,13 +5278,13 @@
         <v>249</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H43" s="32" t="s">
         <v>218</v>
@@ -5329,7 +5329,7 @@
         <v>199</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>207</v>
@@ -5338,13 +5338,13 @@
         <v>249</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F44" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H44" s="32" t="s">
         <v>218</v>
@@ -5389,7 +5389,7 @@
         <v>200</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C45" s="39" t="s">
         <v>208</v>
@@ -5398,13 +5398,13 @@
         <v>249</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F45" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H45" s="32" t="s">
         <v>218</v>
@@ -5449,7 +5449,7 @@
         <v>201</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C46" s="39" t="s">
         <v>209</v>
@@ -5458,13 +5458,13 @@
         <v>249</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H46" s="32" t="s">
         <v>218</v>
@@ -5509,7 +5509,7 @@
         <v>202</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C47" s="39" t="s">
         <v>210</v>
@@ -5518,13 +5518,13 @@
         <v>249</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H47" s="32" t="s">
         <v>218</v>
@@ -5569,7 +5569,7 @@
         <v>203</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C48" s="39" t="s">
         <v>211</v>
@@ -5578,13 +5578,13 @@
         <v>249</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F48" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H48" s="32" t="s">
         <v>218</v>
@@ -5629,7 +5629,7 @@
         <v>204</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C49" s="39" t="s">
         <v>212</v>
@@ -5638,13 +5638,13 @@
         <v>249</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F49" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>218</v>
@@ -5689,7 +5689,7 @@
         <v>205</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>213</v>
@@ -5698,13 +5698,13 @@
         <v>249</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H50" s="32" t="s">
         <v>218</v>
@@ -5749,7 +5749,7 @@
         <v>102</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>106</v>
@@ -5764,7 +5764,7 @@
         <v>242</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>46</v>
@@ -5809,7 +5809,7 @@
         <v>18</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>107</v>
@@ -5824,7 +5824,7 @@
         <v>236</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>114</v>
@@ -5869,7 +5869,7 @@
         <v>19</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>108</v>
@@ -5884,7 +5884,7 @@
         <v>237</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>46</v>
@@ -5929,7 +5929,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>109</v>
@@ -5944,7 +5944,7 @@
         <v>238</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>46</v>
@@ -5989,7 +5989,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>110</v>
@@ -6004,7 +6004,7 @@
         <v>239</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>46</v>
@@ -6049,7 +6049,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>112</v>
@@ -6064,7 +6064,7 @@
         <v>241</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>46</v>
@@ -6109,7 +6109,7 @@
         <v>22</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>111</v>
@@ -6124,7 +6124,7 @@
         <v>240</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>46</v>
@@ -6169,7 +6169,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>55</v>
@@ -6184,7 +6184,7 @@
         <v>243</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>46</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>66</v>
@@ -6431,10 +6431,10 @@
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>220</v>
@@ -6443,25 +6443,25 @@
         <v>37</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>322</v>
-      </c>
       <c r="C11" s="24" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F11" s="1"/>
     </row>

--- a/basinCharacteristics/Covariate Data Status - High Res Delineation.xlsx
+++ b/basinCharacteristics/Covariate Data Status - High Res Delineation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="322">
   <si>
     <t>forest</t>
   </si>
@@ -930,39 +930,6 @@
     <t>1:24k polygons</t>
   </si>
   <si>
-    <t>30m</t>
-  </si>
-  <si>
-    <t>~2.3km</t>
-  </si>
-  <si>
-    <t>800m</t>
-  </si>
-  <si>
-    <t>1:12,000 to 1:63,360</t>
-  </si>
-  <si>
-    <t>1:12,000 to 1:63,361</t>
-  </si>
-  <si>
-    <t>1:12,000 to 1:63,362</t>
-  </si>
-  <si>
-    <t>1:12,000 to 1:63,363</t>
-  </si>
-  <si>
-    <t>1:12,000 to 1:63,364</t>
-  </si>
-  <si>
-    <t>1:12,000 to 1:63,365</t>
-  </si>
-  <si>
-    <t>1:12,000 to 1:63,366</t>
-  </si>
-  <si>
-    <t>1:12,000 to 1:63,367</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -1216,6 +1183,18 @@
   </si>
   <si>
     <t>The percentage of the catchment area that is covered by wetlands, lakes, or ponds that intersect the high resolution stream network.</t>
+  </si>
+  <si>
+    <t>30m grid cell</t>
+  </si>
+  <si>
+    <t>~2.3km grid cell</t>
+  </si>
+  <si>
+    <t>800m grid cell</t>
+  </si>
+  <si>
+    <t>1:12,000 to 1:63,360 polygons</t>
   </si>
 </sst>
 </file>
@@ -2721,10 +2700,10 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -2760,7 +2739,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>48</v>
@@ -2813,13 +2792,13 @@
         <v>178</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>196</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>181</v>
@@ -2828,7 +2807,7 @@
         <v>232</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>46</v>
@@ -2873,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>181</v>
@@ -2888,7 +2867,7 @@
         <v>232</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>46</v>
@@ -2933,13 +2912,13 @@
         <v>179</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>181</v>
@@ -2948,7 +2927,7 @@
         <v>232</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>46</v>
@@ -2993,13 +2972,13 @@
         <v>177</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>181</v>
@@ -3008,7 +2987,7 @@
         <v>232</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>46</v>
@@ -3053,13 +3032,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>181</v>
@@ -3068,7 +3047,7 @@
         <v>232</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>46</v>
@@ -3113,13 +3092,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>181</v>
@@ -3128,7 +3107,7 @@
         <v>232</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>46</v>
@@ -3179,13 +3158,13 @@
         <v>50</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>68</v>
@@ -3233,22 +3212,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>182</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>14</v>
@@ -3293,22 +3272,22 @@
         <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>138</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>182</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>14</v>
@@ -3353,22 +3332,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>170</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>171</v>
@@ -3413,22 +3392,22 @@
         <v>134</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>9</v>
@@ -3479,16 +3458,16 @@
         <v>103</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>183</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>9</v>
@@ -3533,22 +3512,22 @@
         <v>89</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>46</v>
@@ -3593,22 +3572,22 @@
         <v>43</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>46</v>
@@ -3653,22 +3632,22 @@
         <v>75</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>46</v>
@@ -3713,22 +3692,22 @@
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>46</v>
@@ -3773,22 +3752,22 @@
         <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>84</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>46</v>
@@ -3833,22 +3812,22 @@
         <v>40</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>85</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>46</v>
@@ -3893,22 +3872,22 @@
         <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>46</v>
@@ -3953,22 +3932,22 @@
         <v>44</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>46</v>
@@ -4013,22 +3992,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>46</v>
@@ -4073,22 +4052,22 @@
         <v>90</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>46</v>
@@ -4132,22 +4111,22 @@
         <v>45</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>46</v>
@@ -4191,22 +4170,22 @@
         <v>5</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>88</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>46</v>
@@ -4250,22 +4229,22 @@
         <v>3</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>46</v>
@@ -4310,22 +4289,22 @@
         <v>4</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>184</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>46</v>
@@ -4369,22 +4348,22 @@
         <v>215</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>217</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>233</v>
+      <c r="F28" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="H28" s="32" t="s">
         <v>9</v>
@@ -4429,22 +4408,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>10</v>
@@ -4489,22 +4468,22 @@
         <v>32</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>129</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>10</v>
@@ -4549,22 +4528,22 @@
         <v>36</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>10</v>
@@ -4609,22 +4588,22 @@
         <v>26</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>10</v>
@@ -4669,22 +4648,22 @@
         <v>25</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>10</v>
@@ -4729,22 +4708,22 @@
         <v>31</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>128</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>10</v>
@@ -4789,22 +4768,22 @@
         <v>30</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>10</v>
@@ -4849,22 +4828,22 @@
         <v>27</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>10</v>
@@ -4909,22 +4888,22 @@
         <v>6</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>135</v>
@@ -4969,22 +4948,22 @@
         <v>29</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>10</v>
@@ -5029,22 +5008,22 @@
         <v>7</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>135</v>
@@ -5089,22 +5068,22 @@
         <v>35</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>132</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>10</v>
@@ -5149,22 +5128,22 @@
         <v>34</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>10</v>
@@ -5209,22 +5188,22 @@
         <v>33</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>10</v>
@@ -5269,22 +5248,22 @@
         <v>206</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>214</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H43" s="32" t="s">
         <v>218</v>
@@ -5329,22 +5308,22 @@
         <v>199</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>207</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F44" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H44" s="32" t="s">
         <v>218</v>
@@ -5389,22 +5368,22 @@
         <v>200</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C45" s="39" t="s">
         <v>208</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F45" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H45" s="32" t="s">
         <v>218</v>
@@ -5449,22 +5428,22 @@
         <v>201</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C46" s="39" t="s">
         <v>209</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F46" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H46" s="32" t="s">
         <v>218</v>
@@ -5509,22 +5488,22 @@
         <v>202</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C47" s="39" t="s">
         <v>210</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H47" s="32" t="s">
         <v>218</v>
@@ -5569,22 +5548,22 @@
         <v>203</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C48" s="39" t="s">
         <v>211</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F48" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H48" s="32" t="s">
         <v>218</v>
@@ -5629,22 +5608,22 @@
         <v>204</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C49" s="39" t="s">
         <v>212</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F49" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>218</v>
@@ -5689,22 +5668,22 @@
         <v>205</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>213</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>219</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H50" s="32" t="s">
         <v>218</v>
@@ -5749,22 +5728,22 @@
         <v>102</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>106</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>185</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>46</v>
@@ -5809,22 +5788,22 @@
         <v>18</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>107</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E52" s="36" t="s">
         <v>185</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>114</v>
@@ -5869,22 +5848,22 @@
         <v>19</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>108</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E53" s="36" t="s">
         <v>185</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>46</v>
@@ -5929,22 +5908,22 @@
         <v>20</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E54" s="36" t="s">
         <v>185</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>46</v>
@@ -5989,22 +5968,22 @@
         <v>21</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E55" s="36" t="s">
         <v>185</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>46</v>
@@ -6049,22 +6028,22 @@
         <v>23</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E56" s="36" t="s">
         <v>185</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>46</v>
@@ -6109,22 +6088,22 @@
         <v>22</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E57" s="36" t="s">
         <v>185</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>46</v>
@@ -6169,22 +6148,22 @@
         <v>8</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E58" s="36" t="s">
         <v>185</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>243</v>
+        <v>321</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>46</v>
@@ -6273,7 +6252,7 @@
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>66</v>
@@ -6431,10 +6410,10 @@
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>220</v>
@@ -6443,25 +6422,25 @@
         <v>37</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F11" s="1"/>
     </row>
